--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_14_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_14_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53970.01604202897</v>
+        <v>10740033.19236375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53970.01604202897</v>
+        <v>10740033.19236375</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5257.103688044552</v>
+        <v>719043.9767324241</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5257.103688044552</v>
+        <v>719043.9767324241</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419100298.471243</v>
+        <v>57947236.45881459</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11748.29017442508</v>
+        <v>1292261.591566236</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22674.25581277448</v>
+        <v>2456546.953565543</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33600.22145112388</v>
+        <v>3620832.315564852</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45034.74279272107</v>
+        <v>4804231.804215963</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56361.43407497652</v>
+        <v>5969155.566523614</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67688.12535723194</v>
+        <v>7134079.328831263</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79014.81663948737</v>
+        <v>8299003.091138909</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90341.5079217428</v>
+        <v>9463926.853446554</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101657.0814443372</v>
+        <v>10621331.74891666</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112942.186992235</v>
+        <v>11785986.71691201</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>124227.2925401329</v>
+        <v>12950641.68490737</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>135013.6993130034</v>
+        <v>14094046.03922038</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145899.8879040558</v>
+        <v>15257306.97535158</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157616.4296435565</v>
+        <v>16300168.35236851</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>169415.0806599423</v>
+        <v>17333690.42026545</v>
       </c>
     </row>
   </sheetData>
